--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -649,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2742,7 +2748,7 @@
         <v>159</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>139</v>
@@ -2759,295 +2765,295 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3064,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3081,232 +3087,232 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
@@ -3314,22 +3320,22 @@
         <v>166</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="117">
@@ -3337,22 +3343,22 @@
         <v>166</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="118">
@@ -3360,568 +3366,568 @@
         <v>166</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3932,19 +3938,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3955,19 +3961,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3978,599 +3984,668 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E172" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="201">
   <si>
     <t>Sezione</t>
   </si>
@@ -597,6 +597,24 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Atto Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.attoMatrimonio</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,3,4,5,6,7,8,9)</t>
+  </si>
+  <si>
+    <t>Atto Unione Civile</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.attoUnioneCivile</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,5,7,8,9)</t>
   </si>
 </sst>
 </file>
@@ -655,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4649,6 +4667,558 @@
         <v>20</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="203">
   <si>
     <t>Sezione</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -673,14 +679,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.2421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -2007,7 +2013,7 @@
         <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>50</v>
@@ -2053,7 +2059,7 @@
         <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>50</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2093,16 +2099,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>115</v>
@@ -2116,7 +2122,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>116</v>
@@ -2125,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>117</v>
@@ -2139,16 +2145,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>119</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>120</v>
@@ -2171,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>121</v>
@@ -2185,7 +2191,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>122</v>
@@ -2194,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>123</v>
@@ -2208,7 +2214,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>124</v>
@@ -2217,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>125</v>
@@ -2231,7 +2237,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>126</v>
@@ -2240,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>127</v>
@@ -2254,7 +2260,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>128</v>
@@ -2263,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>129</v>
@@ -2277,19 +2283,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2300,16 +2306,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>135</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2346,16 +2352,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>115</v>
@@ -2369,7 +2375,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>116</v>
@@ -2378,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>117</v>
@@ -2392,16 +2398,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>119</v>
@@ -2415,7 +2421,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>120</v>
@@ -2424,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>121</v>
@@ -2438,7 +2444,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>122</v>
@@ -2447,7 +2453,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>123</v>
@@ -2461,7 +2467,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>124</v>
@@ -2470,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>125</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2530,16 +2536,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>142</v>
@@ -2553,7 +2559,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>143</v>
@@ -2562,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>144</v>
@@ -2576,7 +2582,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>145</v>
@@ -2585,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>146</v>
@@ -2599,7 +2605,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>147</v>
@@ -2608,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>148</v>
@@ -2622,7 +2628,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>149</v>
@@ -2631,7 +2637,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>150</v>
@@ -2645,7 +2651,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>151</v>
@@ -2654,10 +2660,10 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2674,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2737,7 +2743,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>157</v>
@@ -2746,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>158</v>
@@ -2760,7 +2766,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>159</v>
@@ -2769,7 +2775,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>160</v>
@@ -2783,16 +2789,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>162</v>
@@ -2806,39 +2812,39 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>142</v>
@@ -2847,12 +2853,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>143</v>
@@ -2861,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>144</v>
@@ -2870,12 +2876,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>145</v>
@@ -2884,7 +2890,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>146</v>
@@ -2893,12 +2899,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>147</v>
@@ -2907,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>148</v>
@@ -2916,12 +2922,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>149</v>
@@ -2930,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>150</v>
@@ -2939,12 +2945,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>151</v>
@@ -2953,44 +2959,44 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>154</v>
@@ -2999,44 +3005,44 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>157</v>
@@ -3045,7 +3051,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>158</v>
@@ -3054,12 +3060,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>159</v>
@@ -3068,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>160</v>
@@ -3077,21 +3083,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>162</v>
@@ -3100,24 +3106,24 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3128,16 +3134,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>142</v>
@@ -3146,12 +3152,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>143</v>
@@ -3160,7 +3166,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>144</v>
@@ -3169,12 +3175,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>145</v>
@@ -3183,7 +3189,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>146</v>
@@ -3192,12 +3198,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>147</v>
@@ -3206,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>148</v>
@@ -3215,12 +3221,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>149</v>
@@ -3229,7 +3235,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>150</v>
@@ -3238,12 +3244,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>151</v>
@@ -3252,44 +3258,44 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>154</v>
@@ -3298,44 +3304,44 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>157</v>
@@ -3344,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>158</v>
@@ -3353,12 +3359,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>159</v>
@@ -3367,7 +3373,7 @@
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>160</v>
@@ -3376,21 +3382,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>162</v>
@@ -3399,7 +3405,7 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
@@ -3407,556 +3413,556 @@
         <v>168</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>106</v>
@@ -3965,7 +3971,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>107</v>
@@ -3974,21 +3980,21 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>109</v>
@@ -3997,24 +4003,24 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4025,536 +4031,536 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>106</v>
@@ -4563,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>107</v>
@@ -4572,21 +4578,21 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>109</v>
@@ -4595,35 +4601,35 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>191</v>
@@ -4632,7 +4638,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>192</v>
@@ -4646,7 +4652,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>193</v>
@@ -4669,30 +4675,30 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>143</v>
@@ -4701,7 +4707,7 @@
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>144</v>
@@ -4710,12 +4716,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>145</v>
@@ -4724,7 +4730,7 @@
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>146</v>
@@ -4733,12 +4739,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>147</v>
@@ -4747,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>148</v>
@@ -4756,12 +4762,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>149</v>
@@ -4770,7 +4776,7 @@
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>150</v>
@@ -4779,12 +4785,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>151</v>
@@ -4793,44 +4799,44 @@
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>154</v>
@@ -4839,44 +4845,44 @@
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>157</v>
@@ -4885,7 +4891,7 @@
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>158</v>
@@ -4894,12 +4900,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>159</v>
@@ -4908,7 +4914,7 @@
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>160</v>
@@ -4917,12 +4923,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>161</v>
@@ -4931,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>162</v>
@@ -4940,35 +4946,35 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>143</v>
@@ -4977,7 +4983,7 @@
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>144</v>
@@ -4986,12 +4992,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>145</v>
@@ -5000,7 +5006,7 @@
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>146</v>
@@ -5009,12 +5015,12 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>147</v>
@@ -5023,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>148</v>
@@ -5032,12 +5038,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>149</v>
@@ -5046,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>150</v>
@@ -5055,12 +5061,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>151</v>
@@ -5069,44 +5075,44 @@
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>154</v>
@@ -5115,44 +5121,44 @@
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>157</v>
@@ -5161,7 +5167,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>158</v>
@@ -5170,12 +5176,12 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>159</v>
@@ -5184,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>160</v>
@@ -5193,12 +5199,12 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>161</v>
@@ -5207,7 +5213,7 @@
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>162</v>
@@ -5216,7 +5222,30 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
         <v>200</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="201">
   <si>
     <t>Sezione</t>
   </si>
@@ -324,12 +324,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -679,14 +673,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.2421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -2013,7 +2007,7 @@
         <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>50</v>
@@ -2059,7 +2053,7 @@
         <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>50</v>
@@ -2076,19 +2070,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2099,16 +2093,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>115</v>
@@ -2122,7 +2116,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>116</v>
@@ -2131,7 +2125,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>117</v>
@@ -2145,16 +2139,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>119</v>
@@ -2168,7 +2162,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>120</v>
@@ -2177,7 +2171,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>121</v>
@@ -2191,7 +2185,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>122</v>
@@ -2200,7 +2194,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>123</v>
@@ -2214,7 +2208,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>124</v>
@@ -2223,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>125</v>
@@ -2237,7 +2231,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>126</v>
@@ -2246,7 +2240,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>127</v>
@@ -2260,7 +2254,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>128</v>
@@ -2269,7 +2263,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>129</v>
@@ -2283,19 +2277,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2306,16 +2300,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>135</v>
@@ -2329,19 +2323,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2352,16 +2346,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>115</v>
@@ -2375,7 +2369,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>116</v>
@@ -2384,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>117</v>
@@ -2398,16 +2392,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>119</v>
@@ -2421,7 +2415,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>120</v>
@@ -2430,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>121</v>
@@ -2444,7 +2438,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>122</v>
@@ -2453,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>123</v>
@@ -2467,7 +2461,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>124</v>
@@ -2476,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>125</v>
@@ -2490,19 +2484,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2507,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2536,16 +2530,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>142</v>
@@ -2559,7 +2553,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>143</v>
@@ -2568,7 +2562,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>144</v>
@@ -2582,7 +2576,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>145</v>
@@ -2591,7 +2585,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>146</v>
@@ -2605,7 +2599,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>147</v>
@@ -2614,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>148</v>
@@ -2628,7 +2622,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>149</v>
@@ -2637,7 +2631,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>150</v>
@@ -2651,7 +2645,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>151</v>
@@ -2660,10 +2654,10 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2668,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2691,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2714,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2743,7 +2737,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>157</v>
@@ -2752,7 +2746,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>158</v>
@@ -2766,7 +2760,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>159</v>
@@ -2775,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>160</v>
@@ -2789,16 +2783,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>162</v>
@@ -2812,39 +2806,39 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>142</v>
@@ -2853,12 +2847,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>143</v>
@@ -2867,7 +2861,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>144</v>
@@ -2876,12 +2870,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>145</v>
@@ -2890,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>146</v>
@@ -2899,12 +2893,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>147</v>
@@ -2913,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>148</v>
@@ -2922,12 +2916,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>149</v>
@@ -2936,7 +2930,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>150</v>
@@ -2945,12 +2939,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>151</v>
@@ -2959,44 +2953,44 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>154</v>
@@ -3005,44 +2999,44 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>157</v>
@@ -3051,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>158</v>
@@ -3060,12 +3054,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>159</v>
@@ -3074,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>160</v>
@@ -3083,21 +3077,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>162</v>
@@ -3106,24 +3100,24 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3134,16 +3128,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>142</v>
@@ -3152,12 +3146,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>143</v>
@@ -3166,7 +3160,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>144</v>
@@ -3175,12 +3169,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>145</v>
@@ -3189,7 +3183,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>146</v>
@@ -3198,12 +3192,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>147</v>
@@ -3212,7 +3206,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>148</v>
@@ -3221,12 +3215,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>149</v>
@@ -3235,7 +3229,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>150</v>
@@ -3244,12 +3238,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>151</v>
@@ -3258,44 +3252,44 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>154</v>
@@ -3304,44 +3298,44 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>157</v>
@@ -3350,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>158</v>
@@ -3359,12 +3353,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>159</v>
@@ -3373,7 +3367,7 @@
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>160</v>
@@ -3382,21 +3376,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>162</v>
@@ -3405,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
@@ -3413,556 +3407,556 @@
         <v>168</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>106</v>
@@ -3971,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>107</v>
@@ -3980,21 +3974,21 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>109</v>
@@ -4003,24 +3997,24 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4031,536 +4025,536 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>106</v>
@@ -4569,7 +4563,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>107</v>
@@ -4578,21 +4572,21 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>109</v>
@@ -4601,35 +4595,35 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>191</v>
@@ -4638,7 +4632,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>192</v>
@@ -4652,7 +4646,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>193</v>
@@ -4675,30 +4669,30 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>143</v>
@@ -4707,7 +4701,7 @@
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>144</v>
@@ -4716,12 +4710,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>145</v>
@@ -4730,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>146</v>
@@ -4739,12 +4733,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>147</v>
@@ -4753,7 +4747,7 @@
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>148</v>
@@ -4762,12 +4756,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>149</v>
@@ -4776,7 +4770,7 @@
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>150</v>
@@ -4785,12 +4779,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>151</v>
@@ -4799,44 +4793,44 @@
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>154</v>
@@ -4845,44 +4839,44 @@
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>157</v>
@@ -4891,7 +4885,7 @@
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>158</v>
@@ -4900,12 +4894,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>159</v>
@@ -4914,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>160</v>
@@ -4923,12 +4917,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>161</v>
@@ -4937,7 +4931,7 @@
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>162</v>
@@ -4946,35 +4940,35 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>143</v>
@@ -4983,7 +4977,7 @@
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>144</v>
@@ -4992,12 +4986,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>145</v>
@@ -5006,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>146</v>
@@ -5015,12 +5009,12 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>147</v>
@@ -5029,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>148</v>
@@ -5038,12 +5032,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>149</v>
@@ -5052,7 +5046,7 @@
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>150</v>
@@ -5061,12 +5055,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>151</v>
@@ -5075,44 +5069,44 @@
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>154</v>
@@ -5121,44 +5115,44 @@
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>157</v>
@@ -5167,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>158</v>
@@ -5176,12 +5170,12 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>159</v>
@@ -5190,7 +5184,7 @@
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>160</v>
@@ -5199,12 +5193,12 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>161</v>
@@ -5213,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>162</v>
@@ -5222,30 +5216,7 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="207">
   <si>
     <t>Sezione</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -679,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1507,7 +1519,7 @@
         <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>50</v>
@@ -1530,7 +1542,7 @@
         <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
@@ -1576,7 +1588,7 @@
         <v>66</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>50</v>
@@ -1599,7 +1611,7 @@
         <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>50</v>
@@ -1691,7 +1703,7 @@
         <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>50</v>
@@ -1714,7 +1726,7 @@
         <v>78</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>50</v>
@@ -1737,7 +1749,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>50</v>
@@ -1760,7 +1772,7 @@
         <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>50</v>
@@ -2036,7 +2048,7 @@
         <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>50</v>
@@ -2059,7 +2071,7 @@
         <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>50</v>
@@ -2082,7 +2094,7 @@
         <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>50</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2145,16 +2157,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>119</v>
@@ -2168,16 +2180,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>121</v>
@@ -2191,16 +2203,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>123</v>
@@ -2214,7 +2226,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>124</v>
@@ -2223,7 +2235,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>125</v>
@@ -2237,7 +2249,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>126</v>
@@ -2246,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>127</v>
@@ -2260,7 +2272,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>128</v>
@@ -2269,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>129</v>
@@ -2283,7 +2295,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>130</v>
@@ -2292,7 +2304,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>131</v>
@@ -2306,19 +2318,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2364,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2387,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2398,16 +2410,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>119</v>
@@ -2421,16 +2433,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>121</v>
@@ -2444,16 +2456,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>123</v>
@@ -2467,7 +2479,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>124</v>
@@ -2476,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>125</v>
@@ -2490,7 +2502,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>126</v>
@@ -2499,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>127</v>
@@ -2513,19 +2525,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2548,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2582,16 +2594,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>146</v>
@@ -2605,7 +2617,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>147</v>
@@ -2614,7 +2626,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>148</v>
@@ -2628,7 +2640,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>149</v>
@@ -2637,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>150</v>
@@ -2651,7 +2663,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>151</v>
@@ -2660,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>152</v>
@@ -2674,7 +2686,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>153</v>
@@ -2683,10 +2695,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2709,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2732,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2755,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2778,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2789,7 +2801,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>161</v>
@@ -2798,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>162</v>
@@ -2812,16 +2824,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>164</v>
@@ -2835,62 +2847,62 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>146</v>
@@ -2899,12 +2911,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>147</v>
@@ -2913,7 +2925,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>148</v>
@@ -2922,12 +2934,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>149</v>
@@ -2936,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>150</v>
@@ -2945,12 +2957,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>151</v>
@@ -2959,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>152</v>
@@ -2968,12 +2980,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>153</v>
@@ -2982,113 +2994,113 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>161</v>
@@ -3097,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>162</v>
@@ -3106,21 +3118,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>164</v>
@@ -3129,67 +3141,67 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>146</v>
@@ -3198,12 +3210,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>147</v>
@@ -3212,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>148</v>
@@ -3221,12 +3233,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>149</v>
@@ -3235,7 +3247,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>150</v>
@@ -3244,12 +3256,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>151</v>
@@ -3258,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>152</v>
@@ -3267,12 +3279,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>153</v>
@@ -3281,113 +3293,113 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>161</v>
@@ -3396,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>162</v>
@@ -3405,21 +3417,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>164</v>
@@ -3428,219 +3440,219 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>176</v>
@@ -3649,21 +3661,21 @@
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>177</v>
@@ -3672,159 +3684,159 @@
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>182</v>
@@ -3833,21 +3845,21 @@
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>183</v>
@@ -3856,44 +3868,44 @@
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>185</v>
@@ -3902,21 +3914,21 @@
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>186</v>
@@ -3925,21 +3937,21 @@
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>187</v>
@@ -3948,389 +3960,389 @@
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>178</v>
@@ -4339,21 +4351,21 @@
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>179</v>
@@ -4362,44 +4374,44 @@
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>181</v>
@@ -4408,205 +4420,205 @@
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>188</v>
@@ -4615,637 +4627,775 @@
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E198" s="2" t="s">
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>202</v>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_031.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -455,6 +455,9 @@
     <t>idAnsc</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -519,6 +522,12 @@
   </si>
   <si>
     <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto non trascritto</t>
+  </si>
+  <si>
+    <t>attoNascitaNonTrascritto</t>
   </si>
   <si>
     <t>Atto Nascita Coniuge</t>
@@ -691,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2612,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -2620,7 +2629,7 @@
         <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2629,13 +2638,13 @@
         <v>145</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85">
@@ -2643,7 +2652,7 @@
         <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2652,13 +2661,13 @@
         <v>145</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -2666,7 +2675,7 @@
         <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2675,13 +2684,13 @@
         <v>145</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
@@ -2689,7 +2698,7 @@
         <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2698,13 +2707,13 @@
         <v>145</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88">
@@ -2712,22 +2721,22 @@
         <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
@@ -2735,7 +2744,7 @@
         <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2750,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
@@ -2758,7 +2767,7 @@
         <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2767,13 +2776,13 @@
         <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
@@ -2781,7 +2790,7 @@
         <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -2796,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
@@ -2804,7 +2813,7 @@
         <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -2813,13 +2822,13 @@
         <v>145</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
@@ -2827,7 +2836,7 @@
         <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2836,13 +2845,13 @@
         <v>145</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94">
@@ -2850,7 +2859,7 @@
         <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -2859,13 +2868,13 @@
         <v>145</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
@@ -2873,188 +2882,188 @@
         <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>158</v>
@@ -3063,131 +3072,131 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109">
@@ -3195,165 +3204,165 @@
         <v>172</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>158</v>
@@ -3362,1459 +3371,1459 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4825,10 +4834,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4837,7 +4846,7 @@
         <v>50</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4848,145 +4857,145 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>158</v>
@@ -4995,44 +5004,44 @@
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>161</v>
@@ -5041,85 +5050,85 @@
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193">
@@ -5127,7 +5136,7 @@
         <v>204</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
@@ -5136,7 +5145,7 @@
         <v>205</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5147,122 +5156,122 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>158</v>
@@ -5271,44 +5280,44 @@
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>161</v>
@@ -5317,85 +5326,108 @@
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E204" s="2" t="s">
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>206</v>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
